--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ambn-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ambn-Cd63.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.221999999999999</v>
+        <v>38.198408</v>
       </c>
       <c r="N2">
-        <v>21.666</v>
+        <v>114.595224</v>
       </c>
       <c r="O2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="P2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="Q2">
-        <v>0.03171180199999999</v>
+        <v>0.167729209528</v>
       </c>
       <c r="R2">
-        <v>0.2854062179999999</v>
+        <v>1.509562885752</v>
       </c>
       <c r="S2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
       <c r="T2">
-        <v>0.009636415263395938</v>
+        <v>0.05104410684611114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,22 +629,22 @@
         <v>574.141372</v>
       </c>
       <c r="O3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="P3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="Q3">
         <v>0.8403515881506667</v>
       </c>
       <c r="R3">
-        <v>7.563164293356</v>
+        <v>7.563164293356001</v>
       </c>
       <c r="S3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
       <c r="T3">
-        <v>0.2553616117644183</v>
+        <v>0.2557395719837403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.9193763333333</v>
+        <v>61.421814</v>
       </c>
       <c r="N4">
-        <v>401.758129</v>
+        <v>184.265442</v>
       </c>
       <c r="O4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="P4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="Q4">
-        <v>0.5880399814796666</v>
+        <v>0.269703185274</v>
       </c>
       <c r="R4">
-        <v>5.292359833317</v>
+        <v>2.427328667466</v>
       </c>
       <c r="S4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
       <c r="T4">
-        <v>0.1786904904684296</v>
+        <v>0.08207728543288938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.4360933333333</v>
+        <v>116.4573846666667</v>
       </c>
       <c r="N5">
-        <v>376.30828</v>
+        <v>349.372154</v>
       </c>
       <c r="O5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="P5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
       <c r="Q5">
-        <v>0.5507898858266665</v>
+        <v>0.5113643760713332</v>
       </c>
       <c r="R5">
-        <v>4.957108972439999</v>
+        <v>4.602279384641999</v>
       </c>
       <c r="S5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813216</v>
       </c>
       <c r="T5">
-        <v>0.1673711277178193</v>
+        <v>0.1556207050813217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>147.2274146666667</v>
+        <v>126.0955403333333</v>
       </c>
       <c r="N6">
-        <v>441.682244</v>
+        <v>378.286621</v>
       </c>
       <c r="O6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="P6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="Q6">
-        <v>0.6464755778013334</v>
+        <v>0.5536855176036666</v>
       </c>
       <c r="R6">
-        <v>5.818280200212</v>
+        <v>4.983169658433</v>
       </c>
       <c r="S6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
       <c r="T6">
-        <v>0.1964475915098574</v>
+        <v>0.1685000650705857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>144.2634733333333</v>
+        <v>214.7875923333334</v>
       </c>
       <c r="N7">
-        <v>432.79042</v>
+        <v>644.3627770000001</v>
       </c>
       <c r="O7">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="P7">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="Q7">
-        <v>0.6334609114066667</v>
+        <v>0.9431323179356668</v>
       </c>
       <c r="R7">
-        <v>5.701148202659999</v>
+        <v>8.488190861421002</v>
       </c>
       <c r="S7">
-        <v>0.1924927632760796</v>
+        <v>0.2870182655853519</v>
       </c>
       <c r="T7">
-        <v>0.1924927632760795</v>
+        <v>0.2870182655853519</v>
       </c>
     </row>
   </sheetData>
